--- a/SourceCode/2024/June 2024/Praveen/Task20/input.xlsx
+++ b/SourceCode/2024/June 2024/Praveen/Task20/input.xlsx
@@ -1037,7 +1037,7 @@
       <x:selection activeCell="C13" sqref="C13"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="16.108588" defaultRowHeight="14.4"/>
+  <x:sheetFormatPr defaultColWidth="22.504213" defaultRowHeight="14.4"/>
   <x:cols>
     <x:col min="1" max="1" width="14.222222" style="0" customWidth="1"/>
   </x:cols>
@@ -1062,6 +1062,9 @@
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
@@ -1075,6 +1078,9 @@
       <x:c r="A5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
@@ -1088,6 +1094,9 @@
       <x:c r="A7" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
@@ -1101,6 +1110,9 @@
       <x:c r="A9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
@@ -1110,23 +1122,48 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="B11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="B12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="B13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="B14" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="B15" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="B16" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="B17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="B18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="B19" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
